--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\beginninghalf\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1825E4-07AD-4105-B3C6-E05997866457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44053FA5-0F46-40A6-A41C-DEA496DFF93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70687F72-6999-44C7-A13F-018C7DD46C9D}"/>
   </bookViews>
@@ -557,12 +557,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="7" width="14.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\beginninghalf\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\beginninghalf\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44053FA5-0F46-40A6-A41C-DEA496DFF93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F366ACD-A700-45FD-A9BC-6FB29D802CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70687F72-6999-44C7-A13F-018C7DD46C9D}"/>
   </bookViews>
@@ -16,29 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>구 분</t>
   </si>
@@ -54,22 +44,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1 주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>출석 점수!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,8 +52,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5 주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2022.11.14~2022.11.20</t>
+  </si>
+  <si>
+    <t>2022.11.21~2022.11.27</t>
+  </si>
+  <si>
+    <t>2022.11.28~2022.12.04</t>
+  </si>
+  <si>
+    <t>2022.12.05~2022.12.11</t>
   </si>
 </sst>
 </file>
@@ -554,32 +536,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817CC20D-AA9B-4ACA-AF09-2B8B57754330}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,25 +569,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -613,10 +592,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{817CC20D-AA9B-4ACA-AF09-2B8B57754330}"/>
+  <autoFilter ref="A2:G2" xr:uid="{817CC20D-AA9B-4ACA-AF09-2B8B57754330}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
